--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.737005983567757</v>
+        <v>0.873501</v>
       </c>
       <c r="H2">
-        <v>0.737005983567757</v>
+        <v>2.620503</v>
       </c>
       <c r="I2">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="J2">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.737005983567757</v>
+        <v>0.873501</v>
       </c>
       <c r="N2">
-        <v>0.737005983567757</v>
+        <v>2.620503</v>
       </c>
       <c r="O2">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="P2">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="Q2">
-        <v>0.5431778198146769</v>
+        <v>0.763003997001</v>
       </c>
       <c r="R2">
-        <v>0.5431778198146769</v>
+        <v>6.867035973008999</v>
       </c>
       <c r="S2">
-        <v>0.01012010513207224</v>
+        <v>0.01361756618913175</v>
       </c>
       <c r="T2">
-        <v>0.01012010513207224</v>
+        <v>0.01361756618913175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.737005983567757</v>
+        <v>0.873501</v>
       </c>
       <c r="H3">
-        <v>0.737005983567757</v>
+        <v>2.620503</v>
       </c>
       <c r="I3">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="J3">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.31217392180761</v>
+        <v>0.327332</v>
       </c>
       <c r="N3">
-        <v>0.31217392180761</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="O3">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="P3">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="Q3">
-        <v>0.2300740482860217</v>
+        <v>0.285924829332</v>
       </c>
       <c r="R3">
-        <v>0.2300740482860217</v>
+        <v>2.573323463988</v>
       </c>
       <c r="S3">
-        <v>0.00428657701378603</v>
+        <v>0.005102988062773685</v>
       </c>
       <c r="T3">
-        <v>0.00428657701378603</v>
+        <v>0.005102988062773685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.737005983567757</v>
+        <v>0.873501</v>
       </c>
       <c r="H4">
-        <v>0.737005983567757</v>
+        <v>2.620503</v>
       </c>
       <c r="I4">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="J4">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.27701556187312</v>
+        <v>6.284543666666667</v>
       </c>
       <c r="N4">
-        <v>6.27701556187312</v>
+        <v>18.853631</v>
       </c>
       <c r="O4">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608782</v>
       </c>
       <c r="P4">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608781</v>
       </c>
       <c r="Q4">
-        <v>4.626198028048416</v>
+        <v>5.489555177377</v>
       </c>
       <c r="R4">
-        <v>4.626198028048416</v>
+        <v>49.405996596393</v>
       </c>
       <c r="S4">
-        <v>0.08619205110696276</v>
+        <v>0.09797377375563636</v>
       </c>
       <c r="T4">
-        <v>0.08619205110696276</v>
+        <v>0.09797377375563635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.31217392180761</v>
+        <v>0.327332</v>
       </c>
       <c r="H5">
-        <v>0.31217392180761</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="I5">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="J5">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.737005983567757</v>
+        <v>0.873501</v>
       </c>
       <c r="N5">
-        <v>0.737005983567757</v>
+        <v>2.620503</v>
       </c>
       <c r="O5">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="P5">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="Q5">
-        <v>0.2300740482860217</v>
+        <v>0.285924829332</v>
       </c>
       <c r="R5">
-        <v>0.2300740482860217</v>
+        <v>2.573323463988</v>
       </c>
       <c r="S5">
-        <v>0.00428657701378603</v>
+        <v>0.005102988062773685</v>
       </c>
       <c r="T5">
-        <v>0.00428657701378603</v>
+        <v>0.005102988062773685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,52 +773,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.31217392180761</v>
+        <v>0.327332</v>
       </c>
       <c r="H6">
-        <v>0.31217392180761</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="I6">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="J6">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.31217392180761</v>
+        <v>0.327332</v>
       </c>
       <c r="N6">
-        <v>0.31217392180761</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="O6">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="P6">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="Q6">
-        <v>0.0974525574567438</v>
+        <v>0.107146238224</v>
       </c>
       <c r="R6">
-        <v>0.0974525574567438</v>
+        <v>0.9643161440160002</v>
       </c>
       <c r="S6">
-        <v>0.001815667155164846</v>
+        <v>0.001912271753053329</v>
       </c>
       <c r="T6">
-        <v>0.001815667155164846</v>
+        <v>0.001912271753053329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,52 +835,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.31217392180761</v>
+        <v>0.327332</v>
       </c>
       <c r="H7">
-        <v>0.31217392180761</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="I7">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="J7">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.27701556187312</v>
+        <v>6.284543666666667</v>
       </c>
       <c r="N7">
-        <v>6.27701556187312</v>
+        <v>18.853631</v>
       </c>
       <c r="O7">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608782</v>
       </c>
       <c r="P7">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608781</v>
       </c>
       <c r="Q7">
-        <v>1.95952056519733</v>
+        <v>2.057132247497333</v>
       </c>
       <c r="R7">
-        <v>1.95952056519733</v>
+        <v>18.514190227476</v>
       </c>
       <c r="S7">
-        <v>0.03650840186188097</v>
+        <v>0.03671426971575301</v>
       </c>
       <c r="T7">
-        <v>0.03650840186188097</v>
+        <v>0.036714269715753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,52 +897,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.27701556187312</v>
+        <v>6.284543666666667</v>
       </c>
       <c r="H8">
-        <v>6.27701556187312</v>
+        <v>18.853631</v>
       </c>
       <c r="I8">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608782</v>
       </c>
       <c r="J8">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608781</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.737005983567757</v>
+        <v>0.873501</v>
       </c>
       <c r="N8">
-        <v>0.737005983567757</v>
+        <v>2.620503</v>
       </c>
       <c r="O8">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="P8">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="Q8">
-        <v>4.626198028048416</v>
+        <v>5.489555177377</v>
       </c>
       <c r="R8">
-        <v>4.626198028048416</v>
+        <v>49.405996596393</v>
       </c>
       <c r="S8">
-        <v>0.08619205110696276</v>
+        <v>0.09797377375563636</v>
       </c>
       <c r="T8">
-        <v>0.08619205110696276</v>
+        <v>0.09797377375563635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,52 +959,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.27701556187312</v>
+        <v>6.284543666666667</v>
       </c>
       <c r="H9">
-        <v>6.27701556187312</v>
+        <v>18.853631</v>
       </c>
       <c r="I9">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608782</v>
       </c>
       <c r="J9">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608781</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.31217392180761</v>
+        <v>0.327332</v>
       </c>
       <c r="N9">
-        <v>0.31217392180761</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="O9">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="P9">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="Q9">
-        <v>1.95952056519733</v>
+        <v>2.057132247497333</v>
       </c>
       <c r="R9">
-        <v>1.95952056519733</v>
+        <v>18.514190227476</v>
       </c>
       <c r="S9">
-        <v>0.03650840186188097</v>
+        <v>0.03671426971575301</v>
       </c>
       <c r="T9">
-        <v>0.03650840186188097</v>
+        <v>0.036714269715753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,52 +1021,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.27701556187312</v>
+        <v>6.284543666666667</v>
       </c>
       <c r="H10">
-        <v>6.27701556187312</v>
+        <v>18.853631</v>
       </c>
       <c r="I10">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608782</v>
       </c>
       <c r="J10">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608781</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.27701556187312</v>
+        <v>6.284543666666667</v>
       </c>
       <c r="N10">
-        <v>6.27701556187312</v>
+        <v>18.853631</v>
       </c>
       <c r="O10">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608782</v>
       </c>
       <c r="P10">
-        <v>0.8567906207163472</v>
+        <v>0.8395761424608781</v>
       </c>
       <c r="Q10">
-        <v>39.40092436399732</v>
+        <v>39.49548909824011</v>
       </c>
       <c r="R10">
-        <v>39.40092436399732</v>
+        <v>355.459401884161</v>
       </c>
       <c r="S10">
-        <v>0.7340901677475035</v>
+        <v>0.7048880989894888</v>
       </c>
       <c r="T10">
-        <v>0.7340901677475035</v>
+        <v>0.7048880989894887</v>
       </c>
     </row>
   </sheetData>
